--- a/docs/mental_health_data_dictionary.xlsx
+++ b/docs/mental_health_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanuel\Documents\MHDP_Africa_OS_Training\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05B001E-B843-41B6-82ED-B6102644B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D463C15-A701-4414-A0CC-134555EF9089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
